--- a/models/resnet/cifar/resnet56/testing_results/resnet56_cifar_TCC_WDM_comparison.xlsx
+++ b/models/resnet/cifar/resnet56/testing_results/resnet56_cifar_TCC_WDM_comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\MyCaffe\test_data\models\resnet56\cifar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Data\SS_Projects\Intelligence\GitHub\MyCaffe\models\resnet\cifar\resnet56\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="resnet56_cifar_TCC_log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -497,7 +497,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -540,8 +540,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -554,8 +555,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -595,6 +597,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1398,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="646704872"/>
-        <c:axId val="646705264"/>
+        <c:axId val="429698832"/>
+        <c:axId val="429700792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="646704872"/>
+        <c:axId val="429698832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646705264"/>
+        <c:crossAx val="429700792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1453,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646705264"/>
+        <c:axId val="429700792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646704872"/>
+        <c:crossAx val="429698832"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2367,11 +2370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="646728392"/>
-        <c:axId val="646726824"/>
+        <c:axId val="429704712"/>
+        <c:axId val="429702752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="646728392"/>
+        <c:axId val="429704712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646726824"/>
+        <c:crossAx val="429702752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646726824"/>
+        <c:axId val="429702752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646728392"/>
+        <c:crossAx val="429704712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +3998,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="626629752"/>
-        <c:axId val="626627792"/>
+        <c:axId val="429701184"/>
+        <c:axId val="429703536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626629752"/>
+        <c:axId val="429701184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,7 +4044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626627792"/>
+        <c:crossAx val="429703536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4049,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626627792"/>
+        <c:axId val="429703536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +4103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626629752"/>
+        <c:crossAx val="429701184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6207,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9783,6 +9786,18 @@
         <v>277.20399999999995</v>
       </c>
     </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f>L104-J104</f>
+        <v>108.52620000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L106" s="6">
+        <f>L105/L104</f>
+        <v>0.45240965663518501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
